--- a/teatro_500.xlsx
+++ b/teatro_500.xlsx
@@ -11,175 +11,115 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>DANIELLE PAULA DE JESUS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>CRISTIANO ANTÔNIO FERNANDES BARBOSA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>MARIA CRISTINA OSCAR BRAGA DE OLIVEIRA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>DENISE MENDES DE GONCALVES</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>GABRIELA MACHADO FERREIRA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>FERNANDA DA SILVEIRA SOUZA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>BIANCA LEITE DE FREITAS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>MARCOS MONRSI BAVUSO RIBEIRO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>MARCOS EUDES DA SILVA MOREIRA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>VANDA MARIA FERREIRA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>ALINE HENRIQUES DA SILVA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>DORVINA SANTOS DA CONCEIÇÃO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>JOYCE NATÁLIA BATISTA LOPES</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>ANA KARLA TZORTZATO ALMEIDA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>EVELINE CINTRA FERRAZ MOREIRA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>MARIANA RAMOS ROSA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>ERIKA ROHLFS PAIVA</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>HERBERT HISCHTER CHAVES DE PAULA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>NAYARA SANTOS FERREIRA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>LICYA DOS SANTOS BENATTI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>GILBERTO DOS SANTOS ALVES</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>ADSON FRANKLIN DOS SANTOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>RARUZA KIARA DOS REIS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>ADRIANA CRAVELARI DE MAGALHÃES</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>PAULINE MARA E SILVA DRUMOND</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>LUCYLENA OLIVEIRA QUEIROZ DE PAULA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>SUELY DOS SANTOS CRUZ RODRIGUES</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF000009"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>MARTHA DO NASCIMENTO LOHSE</t>
     </r>
   </si>
   <si>
@@ -190,7 +130,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="###0;###0"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -206,6 +149,12 @@
       <name val="Times New Roman"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -243,15 +192,15 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,12 +418,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="30.63"/>
+    <col customWidth="1" min="2" max="2" width="40.13"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1">
-        <v>22.0</v>
+        <v>17.0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -482,7 +431,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>18.0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -490,7 +439,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>2.0</v>
+        <v>19.0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -498,7 +447,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>3.0</v>
+        <v>20.0</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -506,7 +455,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>4.0</v>
+        <v>21.0</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -514,7 +463,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -522,7 +471,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>6.0</v>
+        <v>23.0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -530,7 +479,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>7.0</v>
+        <v>24.0</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -538,7 +487,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>8.0</v>
+        <v>25.0</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
@@ -546,7 +495,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -554,64 +503,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>10.0</v>
+        <v>27.0</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/teatro_500.xlsx
+++ b/teatro_500.xlsx
@@ -11,119 +11,86 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>HERBERT HISCHTER CHAVES DE PAULA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>NAYARA SANTOS FERREIRA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>LICYA DOS SANTOS BENATTI</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>GILBERTO DOS SANTOS ALVES</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>ADSON FRANKLIN DOS SANTOS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>RARUZA KIARA DOS REIS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>ADRIANA CRAVELARI DE MAGALHÃES</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>PAULINE MARA E SILVA DRUMOND</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>LUCYLENA OLIVEIRA QUEIROZ DE PAULA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>SUELY DOS SANTOS CRUZ RODRIGUES</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <color rgb="FF000009"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>MARTHA DO NASCIMENTO LOHSE</t>
-    </r>
-  </si>
-  <si>
-    <t>FIM - TEATRO</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Laura Dominguez Ribeiro</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Gisela Daher Gerheim</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Elizabeth Martins De Oliveira</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Cláudia Daplra Lage</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Laura Cassiano Silva Mendonça</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Flávia Da Silva Nascimento</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Marciley Ribeiro Barbosa</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">FIM - TEATRO </t>
   </si>
 </sst>
 </file>
@@ -133,7 +100,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0;###0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -141,20 +108,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <color rgb="FF000009"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
+      <b/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -188,18 +146,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -418,12 +375,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="40.13"/>
+    <col customWidth="1" min="2" max="2" width="38.38"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1">
-        <v>17.0</v>
+        <v>28.0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -431,7 +388,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>18.0</v>
+        <v>29.0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -439,7 +396,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>19.0</v>
+        <v>30.0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -447,7 +404,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>20.0</v>
+        <v>31.0</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -455,7 +412,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>21.0</v>
+        <v>32.0</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -463,7 +420,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>22.0</v>
+        <v>33.0</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -471,48 +428,15 @@
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>23.0</v>
+        <v>34.0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/teatro_500.xlsx
+++ b/teatro_500.xlsx
@@ -11,96 +11,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Laura Dominguez Ribeiro</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Gisela Daher Gerheim</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Elizabeth Martins De Oliveira</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Cláudia Daplra Lage</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Laura Cassiano Silva Mendonça</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Flávia Da Silva Nascimento</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Marciley Ribeiro Barbosa</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">FIM - TEATRO </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>MARCOS GUILHON DE CASTRO</t>
+  </si>
+  <si>
+    <t>VINICIUS MACENA SANTIAGO FIALHO</t>
+  </si>
+  <si>
+    <t>LUCIENE BATISTA DOS REIS</t>
+  </si>
+  <si>
+    <t>Danielle Paula De Jesus</t>
+  </si>
+  <si>
+    <t>CRISTIANO ANTÔNIO FERNANDES BARBOSA</t>
+  </si>
+  <si>
+    <t>MARIA CRISTINA OSCAR BRAGA DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>DENISE MENDES DE GONCALVES</t>
+  </si>
+  <si>
+    <t>GABRIELA MACHADO FERREIRA</t>
+  </si>
+  <si>
+    <t>FERNANDA DA SILVEIRA SOUZA</t>
+  </si>
+  <si>
+    <t>BIANCA LEITE DE FREITAS</t>
+  </si>
+  <si>
+    <t>MARCOS MONRSI BAVUSO RIBEIRO</t>
+  </si>
+  <si>
+    <t>MARCOS EUDES DA SILVA MOREIRA</t>
+  </si>
+  <si>
+    <t>VANDA MARIA FERREIRA</t>
+  </si>
+  <si>
+    <t>ALINE HENRIQUES DA SILVA</t>
+  </si>
+  <si>
+    <t>DORVINA SANTOS DA CONCEIÇÃO</t>
+  </si>
+  <si>
+    <t>JOYCE NATÁLIA BATISTA LOPES</t>
+  </si>
+  <si>
+    <t>ANA KARLA TZORTZATO ALMEIDA</t>
+  </si>
+  <si>
+    <t>EVELINE CINTRA FERRAZ MOREIRA</t>
+  </si>
+  <si>
+    <t>MARIANA RAMOS ROSA</t>
+  </si>
+  <si>
+    <t>ERIKA ROHLFS PAIVA</t>
+  </si>
+  <si>
+    <t>HERBERT HISCHTER CHAVES DE PAULA</t>
+  </si>
+  <si>
+    <t>NAYARA SANTOS FERREIRA</t>
+  </si>
+  <si>
+    <t>LICYA DOS SANTOS BENATTI</t>
+  </si>
+  <si>
+    <t>GILBERTO DOS SANTOS ALVES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="###0;###0"/>
-  </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -108,56 +97,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <sz val="9.0"/>
+      <color rgb="FF333333"/>
+      <name val="&quot;Open Sans&quot;"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -374,13 +347,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="2" max="2" width="38.38"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1">
-        <v>28.0</v>
+        <v>35.0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -388,7 +358,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -396,7 +366,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>30.0</v>
+        <v>37.0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -404,7 +374,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>31.0</v>
+        <v>22.0</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -412,7 +382,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>32.0</v>
+        <v>1.0</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -420,7 +390,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>33.0</v>
+        <v>2.0</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -428,15 +398,146 @@
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>34.0</v>
+        <v>3.0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/teatro_500.xlsx
+++ b/teatro_500.xlsx
@@ -1,105 +1,138 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
+    <sheet name="Página1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>MARCOS GUILHON DE CASTRO</t>
-  </si>
-  <si>
-    <t>VINICIUS MACENA SANTIAGO FIALHO</t>
-  </si>
-  <si>
-    <t>LUCIENE BATISTA DOS REIS</t>
-  </si>
-  <si>
-    <t>Danielle Paula De Jesus</t>
-  </si>
-  <si>
-    <t>CRISTIANO ANTÔNIO FERNANDES BARBOSA</t>
-  </si>
-  <si>
-    <t>MARIA CRISTINA OSCAR BRAGA DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>DENISE MENDES DE GONCALVES</t>
-  </si>
-  <si>
-    <t>GABRIELA MACHADO FERREIRA</t>
-  </si>
-  <si>
-    <t>FERNANDA DA SILVEIRA SOUZA</t>
-  </si>
-  <si>
-    <t>BIANCA LEITE DE FREITAS</t>
-  </si>
-  <si>
-    <t>MARCOS MONRSI BAVUSO RIBEIRO</t>
-  </si>
-  <si>
-    <t>MARCOS EUDES DA SILVA MOREIRA</t>
-  </si>
-  <si>
-    <t>VANDA MARIA FERREIRA</t>
-  </si>
-  <si>
-    <t>ALINE HENRIQUES DA SILVA</t>
-  </si>
-  <si>
-    <t>DORVINA SANTOS DA CONCEIÇÃO</t>
-  </si>
-  <si>
-    <t>JOYCE NATÁLIA BATISTA LOPES</t>
-  </si>
-  <si>
-    <t>ANA KARLA TZORTZATO ALMEIDA</t>
-  </si>
-  <si>
-    <t>EVELINE CINTRA FERRAZ MOREIRA</t>
-  </si>
-  <si>
-    <t>MARIANA RAMOS ROSA</t>
-  </si>
-  <si>
-    <t>ERIKA ROHLFS PAIVA</t>
-  </si>
-  <si>
-    <t>HERBERT HISCHTER CHAVES DE PAULA</t>
-  </si>
-  <si>
-    <t>NAYARA SANTOS FERREIRA</t>
-  </si>
-  <si>
-    <t>LICYA DOS SANTOS BENATTI</t>
-  </si>
-  <si>
-    <t>GILBERTO DOS SANTOS ALVES</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t xml:space="preserve">MARCOS GUILHON DE CASTRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VINICIUS MACENA SANTIAGO FIALHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCIENE BATISTA DOS REIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danielle Paula De Jesus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRISTIANO ANTÔNIO FERNANDES BARBOSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIA CRISTINA OSCAR BRAGA DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DENISE MENDES DE GONCALVES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABRIELA MACHADO FERREIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERNANDA DA SILVEIRA SOUZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIANCA LEITE DE FREITAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCOS MONRSI BAVUSO RIBEIRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCOS EUDES DA SILVA MOREIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VANDA MARIA FERREIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALINE HENRIQUES DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DORVINA SANTOS DA CONCEIÇÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOYCE NATÁLIA BATISTA LOPES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANA KARLA TZORTZATO ALMEIDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVELINE CINTRA FERRAZ MOREIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIANA RAMOS ROSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERIKA ROHLFS PAIVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERBERT HISCHTER CHAVES DE PAULA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAYARA SANTOS FERREIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LICYA DOS SANTOS BENATTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GILBERTO DOS SANTOS ALVES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIM – TEATRO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="&quot;Open Sans&quot;"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -107,41 +140,72 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -152,94 +216,90 @@
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4285f4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ea4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="fbbc04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="34a853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="ff6d01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="46bdc6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -247,33 +307,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -286,13 +337,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -302,15 +347,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -318,7 +361,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -326,11 +368,11 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -339,208 +381,222 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1">
-        <v>35.0</v>
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="n">
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>36.0</v>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>37.0</v>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>22.0</v>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>1.0</v>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>2.0</v>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>3.0</v>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>4.0</v>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>5.0</v>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>6.0</v>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>7.0</v>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>8.0</v>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>9.0</v>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>10.0</v>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>11.0</v>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>12.0</v>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>13.0</v>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>14.0</v>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>15.0</v>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>16.0</v>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>17.0</v>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>18.0</v>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>19.0</v>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>20.0</v>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>